--- a/flight_data.xlsx
+++ b/flight_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heman\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heman\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B3CC7F-77CC-4B94-8DA7-7F47705EE1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E7521F5-AFB2-4EB4-AF39-CBDB3BBAA4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,6 +52,12 @@
     <t>distance</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>available_seats</t>
+  </si>
+  <si>
     <t>Vistara</t>
   </si>
   <si>
@@ -431,12 +437,6 @@
   </si>
   <si>
     <t>flight_id</t>
-  </si>
-  <si>
-    <t>price_INR</t>
-  </si>
-  <si>
-    <t>availability_seats</t>
   </si>
 </sst>
 </file>
@@ -802,17 +802,17 @@
   <dimension ref="A1:N145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -845,45 +845,45 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L2">
         <v>306</v>
@@ -897,37 +897,37 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
         <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
       </c>
       <c r="L3">
         <v>306</v>
@@ -941,37 +941,37 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L4">
         <v>306</v>
@@ -985,37 +985,37 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L5">
         <v>306</v>
@@ -1029,37 +1029,37 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L6">
         <v>306</v>
@@ -1073,37 +1073,37 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L7">
         <v>306</v>
@@ -1117,37 +1117,37 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L8">
         <v>306</v>
@@ -1161,37 +1161,37 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9">
         <v>306</v>
@@ -1205,37 +1205,37 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L10">
         <v>306</v>
@@ -1249,37 +1249,37 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L11">
         <v>306</v>
@@ -1293,37 +1293,37 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12">
         <v>306</v>
@@ -1337,37 +1337,37 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L13">
         <v>306</v>
@@ -1381,37 +1381,37 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L14">
         <v>837</v>
@@ -1425,37 +1425,37 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" t="s">
         <v>64</v>
-      </c>
-      <c r="I15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" t="s">
-        <v>65</v>
-      </c>
-      <c r="K15" t="s">
-        <v>62</v>
       </c>
       <c r="L15">
         <v>837</v>
@@ -1469,37 +1469,37 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L16">
         <v>837</v>
@@ -1513,37 +1513,37 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L17">
         <v>837</v>
@@ -1557,37 +1557,37 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L18">
         <v>837</v>
@@ -1601,37 +1601,37 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L19">
         <v>837</v>
@@ -1645,37 +1645,37 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L20">
         <v>837</v>
@@ -1689,37 +1689,37 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L21">
         <v>837</v>
@@ -1733,37 +1733,37 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L22">
         <v>837</v>
@@ -1777,37 +1777,37 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L23">
         <v>837</v>
@@ -1821,37 +1821,37 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L24">
         <v>837</v>
@@ -1865,37 +1865,37 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L25">
         <v>837</v>
@@ -1909,37 +1909,37 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L26">
         <v>479</v>
@@ -1953,37 +1953,37 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H27" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" t="s">
+        <v>103</v>
+      </c>
+      <c r="K27" t="s">
         <v>100</v>
-      </c>
-      <c r="I27" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" t="s">
-        <v>101</v>
-      </c>
-      <c r="K27" t="s">
-        <v>98</v>
       </c>
       <c r="L27">
         <v>479</v>
@@ -1997,37 +1997,37 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J28" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L28">
         <v>479</v>
@@ -2041,37 +2041,37 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J29" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K29" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L29">
         <v>479</v>
@@ -2085,37 +2085,37 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F30" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J30" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L30">
         <v>479</v>
@@ -2129,37 +2129,37 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J31" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K31" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L31">
         <v>479</v>
@@ -2173,37 +2173,37 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J32" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L32">
         <v>479</v>
@@ -2217,37 +2217,37 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H33" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J33" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K33" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L33">
         <v>479</v>
@@ -2261,37 +2261,37 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H34" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J34" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K34" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L34">
         <v>479</v>
@@ -2305,37 +2305,37 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H35" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J35" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K35" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L35">
         <v>479</v>
@@ -2349,37 +2349,37 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H36" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J36" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L36">
         <v>479</v>
@@ -2393,37 +2393,37 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J37" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K37" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L37">
         <v>479</v>
@@ -2437,37 +2437,37 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G38" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I38" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L38">
         <v>306</v>
@@ -2481,37 +2481,37 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G39" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" t="s">
+        <v>134</v>
+      </c>
+      <c r="J39" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" t="s">
         <v>21</v>
-      </c>
-      <c r="I39" t="s">
-        <v>132</v>
-      </c>
-      <c r="J39" t="s">
-        <v>22</v>
-      </c>
-      <c r="K39" t="s">
-        <v>19</v>
       </c>
       <c r="L39">
         <v>306</v>
@@ -2525,37 +2525,37 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G40" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H40" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I40" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J40" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L40">
         <v>306</v>
@@ -2569,37 +2569,37 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G41" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I41" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L41">
         <v>306</v>
@@ -2613,37 +2613,37 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G42" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I42" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L42">
         <v>306</v>
@@ -2657,37 +2657,37 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I43" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J43" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L43">
         <v>306</v>
@@ -2701,37 +2701,37 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H44" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I44" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J44" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L44">
         <v>306</v>
@@ -2745,37 +2745,37 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I45" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L45">
         <v>306</v>
@@ -2789,37 +2789,37 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G46" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L46">
         <v>306</v>
@@ -2833,37 +2833,37 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I47" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J47" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L47">
         <v>306</v>
@@ -2877,37 +2877,37 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I48" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J48" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L48">
         <v>306</v>
@@ -2921,37 +2921,37 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H49" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I49" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J49" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K49" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L49">
         <v>306</v>
@@ -2965,37 +2965,37 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G50" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I50" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L50">
         <v>837</v>
@@ -3009,37 +3009,37 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G51" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H51" t="s">
+        <v>66</v>
+      </c>
+      <c r="I51" t="s">
+        <v>134</v>
+      </c>
+      <c r="J51" t="s">
+        <v>67</v>
+      </c>
+      <c r="K51" t="s">
         <v>64</v>
-      </c>
-      <c r="I51" t="s">
-        <v>132</v>
-      </c>
-      <c r="J51" t="s">
-        <v>65</v>
-      </c>
-      <c r="K51" t="s">
-        <v>62</v>
       </c>
       <c r="L51">
         <v>837</v>
@@ -3053,37 +3053,37 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G52" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H52" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I52" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L52">
         <v>837</v>
@@ -3097,37 +3097,37 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F53" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G53" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H53" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I53" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J53" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L53">
         <v>837</v>
@@ -3141,37 +3141,37 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F54" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G54" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I54" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J54" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K54" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L54">
         <v>837</v>
@@ -3185,37 +3185,37 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F55" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G55" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I55" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J55" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K55" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L55">
         <v>837</v>
@@ -3229,37 +3229,37 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C56" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I56" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J56" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L56">
         <v>837</v>
@@ -3273,37 +3273,37 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G57" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I57" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J57" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L57">
         <v>837</v>
@@ -3317,37 +3317,37 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D58" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G58" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I58" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J58" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K58" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L58">
         <v>837</v>
@@ -3361,37 +3361,37 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D59" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G59" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H59" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I59" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J59" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L59">
         <v>837</v>
@@ -3405,37 +3405,37 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G60" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H60" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I60" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J60" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L60">
         <v>837</v>
@@ -3449,37 +3449,37 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C61" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D61" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G61" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H61" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I61" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J61" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K61" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L61">
         <v>837</v>
@@ -3493,37 +3493,37 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F62" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G62" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H62" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I62" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J62" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K62" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L62">
         <v>479</v>
@@ -3537,37 +3537,37 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F63" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G63" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H63" t="s">
+        <v>102</v>
+      </c>
+      <c r="I63" t="s">
+        <v>134</v>
+      </c>
+      <c r="J63" t="s">
+        <v>103</v>
+      </c>
+      <c r="K63" t="s">
         <v>100</v>
-      </c>
-      <c r="I63" t="s">
-        <v>132</v>
-      </c>
-      <c r="J63" t="s">
-        <v>101</v>
-      </c>
-      <c r="K63" t="s">
-        <v>98</v>
       </c>
       <c r="L63">
         <v>479</v>
@@ -3581,37 +3581,37 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F64" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G64" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H64" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I64" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J64" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K64" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L64">
         <v>479</v>
@@ -3625,37 +3625,37 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B65" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F65" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G65" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H65" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I65" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J65" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K65" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L65">
         <v>479</v>
@@ -3669,37 +3669,37 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B66" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F66" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G66" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H66" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I66" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J66" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K66" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L66">
         <v>479</v>
@@ -3713,37 +3713,37 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E67" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F67" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G67" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H67" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I67" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J67" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K67" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L67">
         <v>479</v>
@@ -3757,37 +3757,37 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C68" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D68" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G68" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H68" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I68" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J68" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K68" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L68">
         <v>479</v>
@@ -3801,37 +3801,37 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D69" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G69" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H69" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I69" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J69" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K69" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L69">
         <v>479</v>
@@ -3845,37 +3845,37 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B70" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C70" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D70" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G70" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H70" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I70" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J70" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K70" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L70">
         <v>479</v>
@@ -3889,37 +3889,37 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C71" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D71" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G71" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H71" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I71" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J71" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K71" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L71">
         <v>479</v>
@@ -3933,37 +3933,37 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B72" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C72" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D72" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G72" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H72" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I72" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J72" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K72" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L72">
         <v>479</v>
@@ -3977,37 +3977,37 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B73" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D73" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G73" t="s">
+        <v>134</v>
+      </c>
+      <c r="H73" t="s">
         <v>132</v>
       </c>
-      <c r="H73" t="s">
-        <v>130</v>
-      </c>
       <c r="I73" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J73" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K73" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L73">
         <v>479</v>
@@ -4021,37 +4021,37 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E74" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G74" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H74" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I74" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J74" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K74" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L74">
         <v>306</v>
@@ -4065,37 +4065,37 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C75" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E75" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G75" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H75" t="s">
+        <v>23</v>
+      </c>
+      <c r="I75" t="s">
+        <v>135</v>
+      </c>
+      <c r="J75" t="s">
+        <v>24</v>
+      </c>
+      <c r="K75" t="s">
         <v>21</v>
-      </c>
-      <c r="I75" t="s">
-        <v>133</v>
-      </c>
-      <c r="J75" t="s">
-        <v>22</v>
-      </c>
-      <c r="K75" t="s">
-        <v>19</v>
       </c>
       <c r="L75">
         <v>306</v>
@@ -4109,37 +4109,37 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B76" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E76" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G76" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H76" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I76" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J76" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K76" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L76">
         <v>306</v>
@@ -4153,37 +4153,37 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E77" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G77" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H77" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I77" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J77" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K77" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L77">
         <v>306</v>
@@ -4197,37 +4197,37 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E78" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F78" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G78" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H78" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I78" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J78" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K78" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L78">
         <v>306</v>
@@ -4241,37 +4241,37 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E79" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F79" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G79" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H79" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I79" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J79" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K79" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L79">
         <v>306</v>
@@ -4285,37 +4285,37 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B80" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G80" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H80" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I80" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J80" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K80" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L80">
         <v>306</v>
@@ -4329,37 +4329,37 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B81" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G81" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H81" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I81" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K81" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L81">
         <v>306</v>
@@ -4373,37 +4373,37 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B82" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G82" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H82" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K82" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L82">
         <v>306</v>
@@ -4417,37 +4417,37 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G83" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H83" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I83" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J83" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K83" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L83">
         <v>306</v>
@@ -4461,37 +4461,37 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B84" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G84" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H84" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I84" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J84" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K84" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L84">
         <v>306</v>
@@ -4505,37 +4505,37 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B85" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G85" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H85" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I85" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J85" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K85" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L85">
         <v>306</v>
@@ -4549,37 +4549,37 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B86" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C86" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E86" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F86" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G86" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H86" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I86" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J86" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K86" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L86">
         <v>837</v>
@@ -4593,37 +4593,37 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B87" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E87" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F87" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G87" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H87" t="s">
+        <v>66</v>
+      </c>
+      <c r="I87" t="s">
+        <v>135</v>
+      </c>
+      <c r="J87" t="s">
+        <v>67</v>
+      </c>
+      <c r="K87" t="s">
         <v>64</v>
-      </c>
-      <c r="I87" t="s">
-        <v>133</v>
-      </c>
-      <c r="J87" t="s">
-        <v>65</v>
-      </c>
-      <c r="K87" t="s">
-        <v>62</v>
       </c>
       <c r="L87">
         <v>837</v>
@@ -4637,37 +4637,37 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B88" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C88" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E88" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F88" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G88" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H88" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I88" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J88" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K88" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L88">
         <v>837</v>
@@ -4681,37 +4681,37 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B89" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C89" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E89" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F89" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G89" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H89" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I89" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J89" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K89" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L89">
         <v>837</v>
@@ -4725,37 +4725,37 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B90" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E90" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F90" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G90" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H90" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I90" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J90" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K90" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L90">
         <v>837</v>
@@ -4769,37 +4769,37 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B91" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E91" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F91" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G91" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H91" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I91" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J91" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K91" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L91">
         <v>837</v>
@@ -4813,37 +4813,37 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C92" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D92" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G92" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H92" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I92" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J92" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K92" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L92">
         <v>837</v>
@@ -4857,37 +4857,37 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C93" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D93" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E93" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G93" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H93" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I93" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J93" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K93" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L93">
         <v>837</v>
@@ -4901,37 +4901,37 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B94" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C94" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D94" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E94" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G94" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H94" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I94" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J94" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K94" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L94">
         <v>837</v>
@@ -4945,37 +4945,37 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C95" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D95" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G95" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H95" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I95" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J95" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K95" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L95">
         <v>837</v>
@@ -4989,37 +4989,37 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B96" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C96" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D96" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E96" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F96" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G96" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H96" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I96" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J96" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K96" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L96">
         <v>837</v>
@@ -5033,37 +5033,37 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B97" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C97" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D97" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E97" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G97" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H97" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I97" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J97" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K97" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L97">
         <v>837</v>
@@ -5077,37 +5077,37 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B98" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E98" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F98" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G98" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H98" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I98" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J98" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K98" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L98">
         <v>479</v>
@@ -5121,37 +5121,37 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E99" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F99" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G99" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H99" t="s">
+        <v>102</v>
+      </c>
+      <c r="I99" t="s">
+        <v>135</v>
+      </c>
+      <c r="J99" t="s">
+        <v>103</v>
+      </c>
+      <c r="K99" t="s">
         <v>100</v>
-      </c>
-      <c r="I99" t="s">
-        <v>133</v>
-      </c>
-      <c r="J99" t="s">
-        <v>101</v>
-      </c>
-      <c r="K99" t="s">
-        <v>98</v>
       </c>
       <c r="L99">
         <v>479</v>
@@ -5165,37 +5165,37 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E100" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F100" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G100" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H100" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I100" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J100" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K100" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L100">
         <v>479</v>
@@ -5209,37 +5209,37 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E101" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F101" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G101" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H101" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I101" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J101" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K101" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L101">
         <v>479</v>
@@ -5253,37 +5253,37 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B102" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C102" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E102" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F102" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G102" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H102" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I102" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J102" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K102" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L102">
         <v>479</v>
@@ -5297,37 +5297,37 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B103" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C103" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E103" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F103" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G103" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H103" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I103" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J103" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K103" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L103">
         <v>479</v>
@@ -5341,37 +5341,37 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B104" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C104" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D104" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E104" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G104" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H104" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I104" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J104" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K104" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L104">
         <v>479</v>
@@ -5385,37 +5385,37 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C105" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D105" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E105" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G105" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H105" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I105" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J105" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K105" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L105">
         <v>479</v>
@@ -5429,37 +5429,37 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B106" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C106" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D106" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E106" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G106" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H106" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I106" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J106" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K106" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L106">
         <v>479</v>
@@ -5473,37 +5473,37 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B107" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C107" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D107" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E107" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G107" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H107" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I107" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J107" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K107" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L107">
         <v>479</v>
@@ -5517,37 +5517,37 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B108" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C108" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D108" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E108" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G108" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H108" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I108" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J108" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K108" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L108">
         <v>479</v>
@@ -5561,37 +5561,37 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B109" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C109" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D109" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E109" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G109" t="s">
+        <v>135</v>
+      </c>
+      <c r="H109" t="s">
+        <v>132</v>
+      </c>
+      <c r="I109" t="s">
+        <v>135</v>
+      </c>
+      <c r="J109" t="s">
         <v>133</v>
       </c>
-      <c r="H109" t="s">
-        <v>130</v>
-      </c>
-      <c r="I109" t="s">
-        <v>133</v>
-      </c>
-      <c r="J109" t="s">
-        <v>131</v>
-      </c>
       <c r="K109" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L109">
         <v>479</v>
@@ -5605,37 +5605,37 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C110" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D110" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E110" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F110" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G110" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H110" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I110" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J110" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K110" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L110">
         <v>306</v>
@@ -5649,37 +5649,37 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C111" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E111" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F111" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G111" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H111" t="s">
+        <v>23</v>
+      </c>
+      <c r="I111" t="s">
+        <v>136</v>
+      </c>
+      <c r="J111" t="s">
+        <v>24</v>
+      </c>
+      <c r="K111" t="s">
         <v>21</v>
-      </c>
-      <c r="I111" t="s">
-        <v>134</v>
-      </c>
-      <c r="J111" t="s">
-        <v>22</v>
-      </c>
-      <c r="K111" t="s">
-        <v>19</v>
       </c>
       <c r="L111">
         <v>306</v>
@@ -5693,37 +5693,37 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B112" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C112" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E112" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F112" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G112" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H112" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I112" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J112" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K112" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L112">
         <v>306</v>
@@ -5737,37 +5737,37 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B113" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C113" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E113" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F113" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G113" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H113" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I113" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J113" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K113" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L113">
         <v>306</v>
@@ -5781,37 +5781,37 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B114" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C114" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D114" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E114" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F114" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G114" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H114" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I114" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J114" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K114" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L114">
         <v>306</v>
@@ -5825,37 +5825,37 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B115" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C115" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D115" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E115" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F115" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G115" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H115" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I115" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J115" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K115" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L115">
         <v>306</v>
@@ -5869,37 +5869,37 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B116" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C116" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D116" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E116" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F116" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G116" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H116" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I116" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J116" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K116" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L116">
         <v>306</v>
@@ -5913,37 +5913,37 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B117" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C117" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E117" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G117" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H117" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I117" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K117" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L117">
         <v>306</v>
@@ -5957,37 +5957,37 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B118" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C118" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E118" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F118" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G118" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H118" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I118" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J118" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K118" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L118">
         <v>306</v>
@@ -6001,37 +6001,37 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B119" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C119" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E119" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G119" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H119" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I119" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K119" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L119">
         <v>306</v>
@@ -6045,37 +6045,37 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B120" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C120" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E120" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G120" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H120" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I120" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J120" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K120" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L120">
         <v>306</v>
@@ -6089,37 +6089,37 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B121" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C121" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D121" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E121" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G121" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H121" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I121" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J121" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K121" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L121">
         <v>306</v>
@@ -6133,37 +6133,37 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B122" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C122" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D122" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E122" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F122" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G122" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H122" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I122" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J122" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K122" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L122">
         <v>837</v>
@@ -6177,37 +6177,37 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B123" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C123" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D123" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E123" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F123" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G123" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H123" t="s">
+        <v>66</v>
+      </c>
+      <c r="I123" t="s">
+        <v>136</v>
+      </c>
+      <c r="J123" t="s">
+        <v>67</v>
+      </c>
+      <c r="K123" t="s">
         <v>64</v>
-      </c>
-      <c r="I123" t="s">
-        <v>134</v>
-      </c>
-      <c r="J123" t="s">
-        <v>65</v>
-      </c>
-      <c r="K123" t="s">
-        <v>62</v>
       </c>
       <c r="L123">
         <v>837</v>
@@ -6221,37 +6221,37 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B124" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C124" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D124" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E124" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F124" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G124" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H124" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I124" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J124" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K124" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L124">
         <v>837</v>
@@ -6265,37 +6265,37 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B125" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C125" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D125" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E125" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F125" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G125" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H125" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I125" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J125" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K125" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L125">
         <v>837</v>
@@ -6309,37 +6309,37 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B126" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C126" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D126" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E126" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F126" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G126" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H126" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I126" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J126" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K126" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L126">
         <v>837</v>
@@ -6353,37 +6353,37 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B127" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C127" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D127" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E127" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F127" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G127" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H127" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I127" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J127" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K127" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L127">
         <v>837</v>
@@ -6397,37 +6397,37 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B128" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C128" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D128" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E128" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G128" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H128" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I128" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J128" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K128" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L128">
         <v>837</v>
@@ -6441,37 +6441,37 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C129" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D129" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E129" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G129" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H129" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I129" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J129" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K129" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L129">
         <v>837</v>
@@ -6485,37 +6485,37 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B130" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C130" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D130" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E130" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F130" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G130" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H130" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I130" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J130" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K130" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L130">
         <v>837</v>
@@ -6529,37 +6529,37 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B131" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C131" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D131" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E131" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G131" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H131" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I131" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J131" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K131" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L131">
         <v>837</v>
@@ -6573,37 +6573,37 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B132" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C132" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D132" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E132" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F132" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G132" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H132" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I132" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J132" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K132" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L132">
         <v>837</v>
@@ -6617,37 +6617,37 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B133" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C133" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D133" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E133" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F133" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G133" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H133" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I133" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J133" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K133" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L133">
         <v>837</v>
@@ -6661,37 +6661,37 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B134" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C134" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D134" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E134" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F134" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G134" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H134" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I134" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J134" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K134" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L134">
         <v>479</v>
@@ -6705,37 +6705,37 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B135" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C135" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D135" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E135" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F135" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G135" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H135" t="s">
+        <v>102</v>
+      </c>
+      <c r="I135" t="s">
+        <v>136</v>
+      </c>
+      <c r="J135" t="s">
+        <v>103</v>
+      </c>
+      <c r="K135" t="s">
         <v>100</v>
-      </c>
-      <c r="I135" t="s">
-        <v>134</v>
-      </c>
-      <c r="J135" t="s">
-        <v>101</v>
-      </c>
-      <c r="K135" t="s">
-        <v>98</v>
       </c>
       <c r="L135">
         <v>479</v>
@@ -6749,37 +6749,37 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B136" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C136" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E136" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F136" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G136" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H136" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I136" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J136" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K136" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L136">
         <v>479</v>
@@ -6793,37 +6793,37 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B137" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C137" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D137" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E137" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F137" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G137" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H137" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I137" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J137" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K137" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L137">
         <v>479</v>
@@ -6837,37 +6837,37 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B138" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C138" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D138" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E138" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F138" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G138" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H138" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I138" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J138" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K138" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L138">
         <v>479</v>
@@ -6881,37 +6881,37 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B139" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C139" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D139" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E139" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F139" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G139" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H139" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I139" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J139" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K139" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L139">
         <v>479</v>
@@ -6925,37 +6925,37 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B140" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C140" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D140" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E140" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F140" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G140" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H140" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I140" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J140" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K140" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L140">
         <v>479</v>
@@ -6969,37 +6969,37 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B141" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C141" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D141" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E141" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F141" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G141" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H141" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I141" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J141" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K141" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L141">
         <v>479</v>
@@ -7013,37 +7013,37 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B142" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C142" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D142" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E142" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F142" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G142" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H142" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I142" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J142" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K142" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L142">
         <v>479</v>
@@ -7057,37 +7057,37 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B143" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C143" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D143" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E143" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F143" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G143" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H143" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I143" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J143" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K143" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L143">
         <v>479</v>
@@ -7101,37 +7101,37 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B144" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C144" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D144" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E144" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F144" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G144" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H144" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I144" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J144" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K144" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L144">
         <v>479</v>
@@ -7145,37 +7145,37 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B145" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C145" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D145" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E145" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F145" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G145" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H145" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I145" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J145" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K145" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L145">
         <v>479</v>
